--- a/django_tutorial/Japan_test.xlsx
+++ b/django_tutorial/Japan_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="140">
   <si>
     <t>時間戳記</t>
   </si>
@@ -439,75 +439,6 @@
   </si>
   <si>
     <t>2704k</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:06:19</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:09:29</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:10:39</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:11:14</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:12:14</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:12:16</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:12:18</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:40:32</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:40:52</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:41:04</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:41:28</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:47:26</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:48:02</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:48:44</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:49:01</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:51:12</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:51:24</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:51:26</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:51:29</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:51:31</t>
-  </si>
-  <si>
-    <t>2018-08-30 11:57:52</t>
-  </si>
-  <si>
-    <t>2018-08-30 12:10:09</t>
   </si>
 </sst>
 </file>
@@ -515,7 +446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -580,7 +511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -883,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R190"/>
+  <dimension ref="A1:R168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169:XFD171"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -10299,1214 +10230,6 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>140</v>
-      </c>
-      <c r="B169" t="s">
-        <v>18</v>
-      </c>
-      <c r="C169" t="b">
-        <v>1</v>
-      </c>
-      <c r="D169" t="s">
-        <v>20</v>
-      </c>
-      <c r="E169" t="s">
-        <v>141</v>
-      </c>
-      <c r="F169" t="s">
-        <v>22</v>
-      </c>
-      <c r="G169" t="s">
-        <v>23</v>
-      </c>
-      <c r="H169" t="s">
-        <v>25</v>
-      </c>
-      <c r="I169" t="s">
-        <v>25</v>
-      </c>
-      <c r="J169">
-        <v>1</v>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="b">
-        <v>1</v>
-      </c>
-      <c r="M169" t="b">
-        <v>1</v>
-      </c>
-      <c r="N169" t="b">
-        <v>1</v>
-      </c>
-      <c r="O169" t="b">
-        <v>1</v>
-      </c>
-      <c r="P169" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>25</v>
-      </c>
-      <c r="R169" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>142</v>
-      </c>
-      <c r="B170" t="s">
-        <v>18</v>
-      </c>
-      <c r="C170" t="b">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
-        <v>20</v>
-      </c>
-      <c r="E170" t="s">
-        <v>141</v>
-      </c>
-      <c r="F170" t="s">
-        <v>22</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
-      <c r="H170" t="s">
-        <v>25</v>
-      </c>
-      <c r="I170" t="s">
-        <v>25</v>
-      </c>
-      <c r="J170">
-        <v>1</v>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="b">
-        <v>1</v>
-      </c>
-      <c r="M170" t="b">
-        <v>1</v>
-      </c>
-      <c r="N170" t="b">
-        <v>1</v>
-      </c>
-      <c r="O170" t="b">
-        <v>1</v>
-      </c>
-      <c r="P170" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>25</v>
-      </c>
-      <c r="R170" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>143</v>
-      </c>
-      <c r="B171" t="s">
-        <v>18</v>
-      </c>
-      <c r="C171" t="b">
-        <v>1</v>
-      </c>
-      <c r="D171" t="s">
-        <v>20</v>
-      </c>
-      <c r="E171" t="s">
-        <v>141</v>
-      </c>
-      <c r="F171" t="s">
-        <v>22</v>
-      </c>
-      <c r="G171" t="s">
-        <v>23</v>
-      </c>
-      <c r="H171" t="s">
-        <v>25</v>
-      </c>
-      <c r="I171" t="s">
-        <v>25</v>
-      </c>
-      <c r="J171">
-        <v>1</v>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="b">
-        <v>1</v>
-      </c>
-      <c r="M171" t="b">
-        <v>1</v>
-      </c>
-      <c r="N171" t="b">
-        <v>1</v>
-      </c>
-      <c r="O171" t="b">
-        <v>1</v>
-      </c>
-      <c r="P171" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>25</v>
-      </c>
-      <c r="R171" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>144</v>
-      </c>
-      <c r="B172" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" t="b">
-        <v>1</v>
-      </c>
-      <c r="D172" t="s">
-        <v>20</v>
-      </c>
-      <c r="E172" t="s">
-        <v>141</v>
-      </c>
-      <c r="F172" t="s">
-        <v>22</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
-      <c r="H172" t="s">
-        <v>25</v>
-      </c>
-      <c r="I172" t="s">
-        <v>25</v>
-      </c>
-      <c r="J172">
-        <v>1</v>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="b">
-        <v>1</v>
-      </c>
-      <c r="M172" t="b">
-        <v>1</v>
-      </c>
-      <c r="N172" t="b">
-        <v>1</v>
-      </c>
-      <c r="O172" t="b">
-        <v>1</v>
-      </c>
-      <c r="P172" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>25</v>
-      </c>
-      <c r="R172" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>145</v>
-      </c>
-      <c r="B173" t="s">
-        <v>18</v>
-      </c>
-      <c r="C173" t="b">
-        <v>1</v>
-      </c>
-      <c r="D173" t="s">
-        <v>20</v>
-      </c>
-      <c r="E173" t="s">
-        <v>141</v>
-      </c>
-      <c r="F173" t="s">
-        <v>22</v>
-      </c>
-      <c r="G173" t="s">
-        <v>23</v>
-      </c>
-      <c r="H173" t="s">
-        <v>25</v>
-      </c>
-      <c r="I173" t="s">
-        <v>25</v>
-      </c>
-      <c r="J173">
-        <v>1</v>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="b">
-        <v>1</v>
-      </c>
-      <c r="M173" t="b">
-        <v>1</v>
-      </c>
-      <c r="N173" t="b">
-        <v>1</v>
-      </c>
-      <c r="O173" t="b">
-        <v>1</v>
-      </c>
-      <c r="P173" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>25</v>
-      </c>
-      <c r="R173" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>146</v>
-      </c>
-      <c r="B174" t="s">
-        <v>18</v>
-      </c>
-      <c r="C174" t="b">
-        <v>1</v>
-      </c>
-      <c r="D174" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" t="s">
-        <v>141</v>
-      </c>
-      <c r="F174" t="s">
-        <v>22</v>
-      </c>
-      <c r="G174" t="s">
-        <v>23</v>
-      </c>
-      <c r="H174" t="s">
-        <v>25</v>
-      </c>
-      <c r="I174" t="s">
-        <v>25</v>
-      </c>
-      <c r="J174">
-        <v>1</v>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="b">
-        <v>1</v>
-      </c>
-      <c r="M174" t="b">
-        <v>1</v>
-      </c>
-      <c r="N174" t="b">
-        <v>1</v>
-      </c>
-      <c r="O174" t="b">
-        <v>1</v>
-      </c>
-      <c r="P174" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>25</v>
-      </c>
-      <c r="R174" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>147</v>
-      </c>
-      <c r="B175" t="s">
-        <v>18</v>
-      </c>
-      <c r="C175" t="b">
-        <v>1</v>
-      </c>
-      <c r="D175" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175" t="s">
-        <v>141</v>
-      </c>
-      <c r="F175" t="s">
-        <v>22</v>
-      </c>
-      <c r="G175" t="s">
-        <v>23</v>
-      </c>
-      <c r="H175" t="s">
-        <v>25</v>
-      </c>
-      <c r="I175" t="s">
-        <v>25</v>
-      </c>
-      <c r="J175">
-        <v>1</v>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="b">
-        <v>1</v>
-      </c>
-      <c r="M175" t="b">
-        <v>1</v>
-      </c>
-      <c r="N175" t="b">
-        <v>1</v>
-      </c>
-      <c r="O175" t="b">
-        <v>1</v>
-      </c>
-      <c r="P175" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>25</v>
-      </c>
-      <c r="R175" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>148</v>
-      </c>
-      <c r="B176" t="s">
-        <v>18</v>
-      </c>
-      <c r="C176" t="b">
-        <v>1</v>
-      </c>
-      <c r="D176" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" t="s">
-        <v>141</v>
-      </c>
-      <c r="F176" t="s">
-        <v>22</v>
-      </c>
-      <c r="G176" t="s">
-        <v>23</v>
-      </c>
-      <c r="H176" t="s">
-        <v>25</v>
-      </c>
-      <c r="I176" t="s">
-        <v>25</v>
-      </c>
-      <c r="J176">
-        <v>1</v>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="b">
-        <v>1</v>
-      </c>
-      <c r="M176" t="b">
-        <v>1</v>
-      </c>
-      <c r="N176" t="b">
-        <v>1</v>
-      </c>
-      <c r="O176" t="b">
-        <v>1</v>
-      </c>
-      <c r="P176" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>25</v>
-      </c>
-      <c r="R176" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>149</v>
-      </c>
-      <c r="B177" t="s">
-        <v>18</v>
-      </c>
-      <c r="C177" t="b">
-        <v>1</v>
-      </c>
-      <c r="D177" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" t="s">
-        <v>141</v>
-      </c>
-      <c r="F177" t="s">
-        <v>22</v>
-      </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
-      <c r="H177" t="s">
-        <v>25</v>
-      </c>
-      <c r="I177" t="s">
-        <v>25</v>
-      </c>
-      <c r="J177">
-        <v>1</v>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="b">
-        <v>1</v>
-      </c>
-      <c r="M177" t="b">
-        <v>1</v>
-      </c>
-      <c r="N177" t="b">
-        <v>1</v>
-      </c>
-      <c r="O177" t="b">
-        <v>1</v>
-      </c>
-      <c r="P177" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>25</v>
-      </c>
-      <c r="R177" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>150</v>
-      </c>
-      <c r="B178" t="s">
-        <v>18</v>
-      </c>
-      <c r="C178" t="b">
-        <v>1</v>
-      </c>
-      <c r="D178" t="s">
-        <v>20</v>
-      </c>
-      <c r="E178" t="s">
-        <v>141</v>
-      </c>
-      <c r="F178" t="s">
-        <v>22</v>
-      </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
-      <c r="H178" t="s">
-        <v>25</v>
-      </c>
-      <c r="I178" t="s">
-        <v>25</v>
-      </c>
-      <c r="J178">
-        <v>1</v>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="b">
-        <v>1</v>
-      </c>
-      <c r="M178" t="b">
-        <v>1</v>
-      </c>
-      <c r="N178" t="b">
-        <v>1</v>
-      </c>
-      <c r="O178" t="b">
-        <v>1</v>
-      </c>
-      <c r="P178" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>25</v>
-      </c>
-      <c r="R178" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>151</v>
-      </c>
-      <c r="B179" t="s">
-        <v>18</v>
-      </c>
-      <c r="C179" t="b">
-        <v>1</v>
-      </c>
-      <c r="D179" t="s">
-        <v>20</v>
-      </c>
-      <c r="E179" t="s">
-        <v>141</v>
-      </c>
-      <c r="F179" t="s">
-        <v>22</v>
-      </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
-      <c r="H179" t="s">
-        <v>25</v>
-      </c>
-      <c r="I179" t="s">
-        <v>25</v>
-      </c>
-      <c r="J179">
-        <v>1</v>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="b">
-        <v>1</v>
-      </c>
-      <c r="M179" t="b">
-        <v>1</v>
-      </c>
-      <c r="N179" t="b">
-        <v>1</v>
-      </c>
-      <c r="O179" t="b">
-        <v>1</v>
-      </c>
-      <c r="P179" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>25</v>
-      </c>
-      <c r="R179" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>152</v>
-      </c>
-      <c r="B180" t="s">
-        <v>18</v>
-      </c>
-      <c r="C180" t="b">
-        <v>1</v>
-      </c>
-      <c r="D180" t="s">
-        <v>20</v>
-      </c>
-      <c r="E180" t="s">
-        <v>141</v>
-      </c>
-      <c r="F180" t="s">
-        <v>22</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
-      <c r="H180" t="s">
-        <v>25</v>
-      </c>
-      <c r="I180" t="s">
-        <v>25</v>
-      </c>
-      <c r="J180">
-        <v>1</v>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="b">
-        <v>1</v>
-      </c>
-      <c r="M180" t="b">
-        <v>1</v>
-      </c>
-      <c r="N180" t="b">
-        <v>1</v>
-      </c>
-      <c r="O180" t="b">
-        <v>1</v>
-      </c>
-      <c r="P180" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>25</v>
-      </c>
-      <c r="R180" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>153</v>
-      </c>
-      <c r="B181" t="s">
-        <v>18</v>
-      </c>
-      <c r="C181" t="b">
-        <v>1</v>
-      </c>
-      <c r="D181" t="s">
-        <v>20</v>
-      </c>
-      <c r="E181" t="s">
-        <v>141</v>
-      </c>
-      <c r="F181" t="s">
-        <v>22</v>
-      </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
-      <c r="H181" t="s">
-        <v>25</v>
-      </c>
-      <c r="I181" t="s">
-        <v>25</v>
-      </c>
-      <c r="J181">
-        <v>1</v>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="b">
-        <v>1</v>
-      </c>
-      <c r="M181" t="b">
-        <v>1</v>
-      </c>
-      <c r="N181" t="b">
-        <v>1</v>
-      </c>
-      <c r="O181" t="b">
-        <v>1</v>
-      </c>
-      <c r="P181" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>25</v>
-      </c>
-      <c r="R181" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>154</v>
-      </c>
-      <c r="B182" t="s">
-        <v>18</v>
-      </c>
-      <c r="C182" t="b">
-        <v>1</v>
-      </c>
-      <c r="D182" t="s">
-        <v>20</v>
-      </c>
-      <c r="E182" t="s">
-        <v>141</v>
-      </c>
-      <c r="F182" t="s">
-        <v>22</v>
-      </c>
-      <c r="G182" t="s">
-        <v>23</v>
-      </c>
-      <c r="H182" t="s">
-        <v>25</v>
-      </c>
-      <c r="I182" t="s">
-        <v>25</v>
-      </c>
-      <c r="J182">
-        <v>1</v>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="b">
-        <v>1</v>
-      </c>
-      <c r="M182" t="b">
-        <v>1</v>
-      </c>
-      <c r="N182" t="b">
-        <v>1</v>
-      </c>
-      <c r="O182" t="b">
-        <v>1</v>
-      </c>
-      <c r="P182" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>25</v>
-      </c>
-      <c r="R182" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>155</v>
-      </c>
-      <c r="B183" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" t="b">
-        <v>1</v>
-      </c>
-      <c r="D183" t="s">
-        <v>20</v>
-      </c>
-      <c r="E183" t="s">
-        <v>141</v>
-      </c>
-      <c r="F183" t="s">
-        <v>22</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
-      <c r="H183" t="s">
-        <v>25</v>
-      </c>
-      <c r="I183" t="s">
-        <v>25</v>
-      </c>
-      <c r="J183">
-        <v>1</v>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="b">
-        <v>1</v>
-      </c>
-      <c r="M183" t="b">
-        <v>1</v>
-      </c>
-      <c r="N183" t="b">
-        <v>1</v>
-      </c>
-      <c r="O183" t="b">
-        <v>1</v>
-      </c>
-      <c r="P183" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>25</v>
-      </c>
-      <c r="R183" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>156</v>
-      </c>
-      <c r="B184" t="s">
-        <v>18</v>
-      </c>
-      <c r="C184" t="b">
-        <v>1</v>
-      </c>
-      <c r="D184" t="s">
-        <v>20</v>
-      </c>
-      <c r="E184" t="s">
-        <v>141</v>
-      </c>
-      <c r="F184" t="s">
-        <v>22</v>
-      </c>
-      <c r="G184" t="s">
-        <v>23</v>
-      </c>
-      <c r="H184" t="s">
-        <v>25</v>
-      </c>
-      <c r="I184" t="s">
-        <v>25</v>
-      </c>
-      <c r="J184">
-        <v>1</v>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="b">
-        <v>1</v>
-      </c>
-      <c r="M184" t="b">
-        <v>1</v>
-      </c>
-      <c r="N184" t="b">
-        <v>1</v>
-      </c>
-      <c r="O184" t="b">
-        <v>1</v>
-      </c>
-      <c r="P184" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>25</v>
-      </c>
-      <c r="R184" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>157</v>
-      </c>
-      <c r="B185" t="s">
-        <v>18</v>
-      </c>
-      <c r="C185" t="b">
-        <v>1</v>
-      </c>
-      <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185" t="s">
-        <v>141</v>
-      </c>
-      <c r="F185" t="s">
-        <v>22</v>
-      </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
-      <c r="H185" t="s">
-        <v>25</v>
-      </c>
-      <c r="I185" t="s">
-        <v>25</v>
-      </c>
-      <c r="J185">
-        <v>1</v>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="b">
-        <v>1</v>
-      </c>
-      <c r="M185" t="b">
-        <v>1</v>
-      </c>
-      <c r="N185" t="b">
-        <v>1</v>
-      </c>
-      <c r="O185" t="b">
-        <v>1</v>
-      </c>
-      <c r="P185" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>25</v>
-      </c>
-      <c r="R185" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>158</v>
-      </c>
-      <c r="B186" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" t="b">
-        <v>1</v>
-      </c>
-      <c r="D186" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186" t="s">
-        <v>141</v>
-      </c>
-      <c r="F186" t="s">
-        <v>22</v>
-      </c>
-      <c r="G186" t="s">
-        <v>23</v>
-      </c>
-      <c r="H186" t="s">
-        <v>25</v>
-      </c>
-      <c r="I186" t="s">
-        <v>25</v>
-      </c>
-      <c r="J186">
-        <v>1</v>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="b">
-        <v>1</v>
-      </c>
-      <c r="M186" t="b">
-        <v>1</v>
-      </c>
-      <c r="N186" t="b">
-        <v>1</v>
-      </c>
-      <c r="O186" t="b">
-        <v>1</v>
-      </c>
-      <c r="P186" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>25</v>
-      </c>
-      <c r="R186" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>159</v>
-      </c>
-      <c r="B187" t="s">
-        <v>18</v>
-      </c>
-      <c r="C187" t="b">
-        <v>1</v>
-      </c>
-      <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" t="s">
-        <v>141</v>
-      </c>
-      <c r="F187" t="s">
-        <v>22</v>
-      </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
-      <c r="H187" t="s">
-        <v>25</v>
-      </c>
-      <c r="I187" t="s">
-        <v>25</v>
-      </c>
-      <c r="J187">
-        <v>1</v>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="b">
-        <v>1</v>
-      </c>
-      <c r="M187" t="b">
-        <v>1</v>
-      </c>
-      <c r="N187" t="b">
-        <v>1</v>
-      </c>
-      <c r="O187" t="b">
-        <v>1</v>
-      </c>
-      <c r="P187" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>25</v>
-      </c>
-      <c r="R187" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>160</v>
-      </c>
-      <c r="B188" t="s">
-        <v>18</v>
-      </c>
-      <c r="C188" t="b">
-        <v>1</v>
-      </c>
-      <c r="D188" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188" t="s">
-        <v>141</v>
-      </c>
-      <c r="F188" t="s">
-        <v>22</v>
-      </c>
-      <c r="G188" t="s">
-        <v>23</v>
-      </c>
-      <c r="H188" t="s">
-        <v>25</v>
-      </c>
-      <c r="I188" t="s">
-        <v>25</v>
-      </c>
-      <c r="J188">
-        <v>1</v>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="b">
-        <v>1</v>
-      </c>
-      <c r="M188" t="b">
-        <v>1</v>
-      </c>
-      <c r="N188" t="b">
-        <v>1</v>
-      </c>
-      <c r="O188" t="b">
-        <v>1</v>
-      </c>
-      <c r="P188" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>25</v>
-      </c>
-      <c r="R188" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>161</v>
-      </c>
-      <c r="B189" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" t="b">
-        <v>1</v>
-      </c>
-      <c r="D189" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" t="s">
-        <v>141</v>
-      </c>
-      <c r="F189" t="s">
-        <v>22</v>
-      </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
-      <c r="H189" t="s">
-        <v>25</v>
-      </c>
-      <c r="I189" t="s">
-        <v>25</v>
-      </c>
-      <c r="J189" t="b">
-        <v>1</v>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="b">
-        <v>1</v>
-      </c>
-      <c r="M189" t="b">
-        <v>1</v>
-      </c>
-      <c r="N189" t="b">
-        <v>1</v>
-      </c>
-      <c r="O189" t="b">
-        <v>1</v>
-      </c>
-      <c r="P189" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>25</v>
-      </c>
-      <c r="R189" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>162</v>
-      </c>
-      <c r="B190" t="s">
-        <v>18</v>
-      </c>
-      <c r="D190" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190" t="s">
-        <v>141</v>
-      </c>
-      <c r="F190" t="s">
-        <v>22</v>
-      </c>
-      <c r="G190" t="s">
-        <v>23</v>
-      </c>
-      <c r="H190" t="s">
-        <v>25</v>
-      </c>
-      <c r="I190" t="s">
-        <v>25</v>
-      </c>
-      <c r="P190" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
